--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H2">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I2">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J2">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N2">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O2">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P2">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q2">
-        <v>337.9720234803643</v>
+        <v>442.9842721530684</v>
       </c>
       <c r="R2">
-        <v>337.9720234803643</v>
+        <v>3986.858449377616</v>
       </c>
       <c r="S2">
-        <v>0.09196482464933473</v>
+        <v>0.103732647573727</v>
       </c>
       <c r="T2">
-        <v>0.09196482464933473</v>
+        <v>0.103732647573727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H3">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I3">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J3">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N3">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O3">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P3">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q3">
-        <v>0.7947344008176296</v>
+        <v>1.155056398140444</v>
       </c>
       <c r="R3">
-        <v>0.7947344008176296</v>
+        <v>10.395507583264</v>
       </c>
       <c r="S3">
-        <v>0.000216253431456683</v>
+        <v>0.0002704770029277241</v>
       </c>
       <c r="T3">
-        <v>0.000216253431456683</v>
+        <v>0.0002704770029277241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H4">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I4">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J4">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N4">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O4">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P4">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q4">
-        <v>0.222385382575614</v>
+        <v>0.3981057747004444</v>
       </c>
       <c r="R4">
-        <v>0.222385382575614</v>
+        <v>3.582951972304</v>
       </c>
       <c r="S4">
-        <v>6.051279778289037E-05</v>
+        <v>9.32235490514146E-05</v>
       </c>
       <c r="T4">
-        <v>6.051279778289037E-05</v>
+        <v>9.322354905141459E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H5">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I5">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J5">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N5">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O5">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P5">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q5">
-        <v>3.231388829849921</v>
+        <v>7.635449145381331</v>
       </c>
       <c r="R5">
-        <v>3.231388829849921</v>
+        <v>68.71904230843199</v>
       </c>
       <c r="S5">
-        <v>0.0008792861138348994</v>
+        <v>0.001787976244428096</v>
       </c>
       <c r="T5">
-        <v>0.0008792861138348994</v>
+        <v>0.001787976244428096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H6">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I6">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J6">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N6">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O6">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P6">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q6">
-        <v>1674.448454036041</v>
+        <v>1785.776996475912</v>
       </c>
       <c r="R6">
-        <v>1674.448454036041</v>
+        <v>16071.99296828321</v>
       </c>
       <c r="S6">
-        <v>0.4556304893938086</v>
+        <v>0.4181714509193583</v>
       </c>
       <c r="T6">
-        <v>0.4556304893938086</v>
+        <v>0.4181714509193583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H7">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I7">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J7">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N7">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O7">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P7">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q7">
-        <v>3.937431788331597</v>
+        <v>4.656312368396666</v>
       </c>
       <c r="R7">
-        <v>3.937431788331597</v>
+        <v>41.90681131557</v>
       </c>
       <c r="S7">
-        <v>0.001071405911808169</v>
+        <v>0.001090358372220443</v>
       </c>
       <c r="T7">
-        <v>0.001071405911808169</v>
+        <v>0.001090358372220443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H8">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I8">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J8">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N8">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O8">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P8">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q8">
-        <v>1.101786047908148</v>
+        <v>1.604860893071667</v>
       </c>
       <c r="R8">
-        <v>1.101786047908148</v>
+        <v>14.443748037645</v>
       </c>
       <c r="S8">
-        <v>0.0002998045804310286</v>
+        <v>0.0003758067269899276</v>
       </c>
       <c r="T8">
-        <v>0.0002998045804310286</v>
+        <v>0.0003758067269899276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H9">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I9">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J9">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N9">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O9">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P9">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q9">
-        <v>16.00959148870466</v>
+        <v>30.78034661436499</v>
       </c>
       <c r="R9">
-        <v>16.00959148870466</v>
+        <v>277.023119529285</v>
       </c>
       <c r="S9">
-        <v>0.004356334760506429</v>
+        <v>0.007207765711469332</v>
       </c>
       <c r="T9">
-        <v>0.004356334760506429</v>
+        <v>0.007207765711469332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H10">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I10">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J10">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N10">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O10">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P10">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q10">
-        <v>1038.70759089392</v>
+        <v>1258.769542438641</v>
       </c>
       <c r="R10">
-        <v>1038.70759089392</v>
+        <v>11328.92588194777</v>
       </c>
       <c r="S10">
-        <v>0.2826404401015226</v>
+        <v>0.2947632806187083</v>
       </c>
       <c r="T10">
-        <v>0.2826404401015226</v>
+        <v>0.2947632806187083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H11">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I11">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J11">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N11">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O11">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P11">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q11">
-        <v>2.442499963082783</v>
+        <v>3.282170282731111</v>
       </c>
       <c r="R11">
-        <v>2.442499963082783</v>
+        <v>29.53953254458</v>
       </c>
       <c r="S11">
-        <v>0.0006646232978037161</v>
+        <v>0.0007685785582424949</v>
       </c>
       <c r="T11">
-        <v>0.0006646232978037161</v>
+        <v>0.0007685785582424949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H12">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I12">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J12">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N12">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O12">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P12">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q12">
-        <v>0.6834689528630741</v>
+        <v>1.131244279681111</v>
       </c>
       <c r="R12">
-        <v>0.6834689528630741</v>
+        <v>10.18119851713</v>
       </c>
       <c r="S12">
-        <v>0.0001859772349085244</v>
+        <v>0.0002649009717965955</v>
       </c>
       <c r="T12">
-        <v>0.0001859772349085244</v>
+        <v>0.0002649009717965955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H13">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I13">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J13">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N13">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O13">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P13">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q13">
-        <v>9.931201027028031</v>
+        <v>21.69664123814333</v>
       </c>
       <c r="R13">
-        <v>9.931201027028031</v>
+        <v>195.26977114329</v>
       </c>
       <c r="S13">
-        <v>0.002702357288638089</v>
+        <v>0.005080654507553773</v>
       </c>
       <c r="T13">
-        <v>0.002702357288638089</v>
+        <v>0.005080654507553773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H14">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I14">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J14">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N14">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O14">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P14">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q14">
-        <v>578.2624012253316</v>
+        <v>696.1316412190041</v>
       </c>
       <c r="R14">
-        <v>578.2624012253316</v>
+        <v>6265.184770971037</v>
       </c>
       <c r="S14">
-        <v>0.1573497113233117</v>
+        <v>0.1630116072801321</v>
       </c>
       <c r="T14">
-        <v>0.1573497113233117</v>
+        <v>0.1630116072801321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H15">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I15">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J15">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N15">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O15">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P15">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q15">
-        <v>1.359772380626876</v>
+        <v>1.815123824216</v>
       </c>
       <c r="R15">
-        <v>1.359772380626876</v>
+        <v>16.336114417944</v>
       </c>
       <c r="S15">
-        <v>0.0003700046745278146</v>
+        <v>0.0004250435326855424</v>
       </c>
       <c r="T15">
-        <v>0.0003700046745278146</v>
+        <v>0.0004250435326855424</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H16">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I16">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J16">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N16">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O16">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P16">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q16">
-        <v>0.3804963026268353</v>
+        <v>0.6256069204760001</v>
       </c>
       <c r="R16">
-        <v>0.3804963026268353</v>
+        <v>5.630462284284</v>
       </c>
       <c r="S16">
-        <v>0.0001035360128050069</v>
+        <v>0.0001464969893536029</v>
       </c>
       <c r="T16">
-        <v>0.0001035360128050069</v>
+        <v>0.0001464969893536029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H17">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I17">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J17">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N17">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O17">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P17">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q17">
-        <v>5.52883237138796</v>
+        <v>11.998795621308</v>
       </c>
       <c r="R17">
-        <v>5.52883237138796</v>
+        <v>107.989160591772</v>
       </c>
       <c r="S17">
-        <v>0.001504438427519134</v>
+        <v>0.002809731441355192</v>
       </c>
       <c r="T17">
-        <v>0.001504438427519134</v>
+        <v>0.002809731441355192</v>
       </c>
     </row>
   </sheetData>
